--- a/EDA_DF/Ligue1_Rank_ML.xlsx
+++ b/EDA_DF/Ligue1_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.927668868900463</v>
+        <v>2.948174823576389</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.917252202233796</v>
+        <v>4.937758156909722</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.91725220223379</v>
+        <v>24.93775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.25058553556713</v>
+        <v>38.27109149024305</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>65.92766886890047</v>
+        <v>65.94817482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>66.9172522022338</v>
+        <v>66.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>79.92766886890047</v>
+        <v>79.94817482357639</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9276688689005</v>
+        <v>107.9481748235764</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>118.9589188689005</v>
+        <v>118.9794248235764</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0839188689005</v>
+        <v>123.1044248235764</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.9172522022338</v>
+        <v>130.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.2505855355671</v>
+        <v>157.2710914902431</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>192.9589188689005</v>
+        <v>192.9794248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>220.9589188689005</v>
+        <v>220.9794248235764</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>221.0422522022338</v>
+        <v>221.0627581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>346.9589188689005</v>
+        <v>346.9794248235764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>353.9589188689005</v>
+        <v>353.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>366.9693355355672</v>
+        <v>366.9898414902431</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>388.9172522022338</v>
+        <v>388.9377581569097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>389.9172522022338</v>
+        <v>389.9377581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>401.9276688689005</v>
+        <v>401.9481748235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>403.9172522022338</v>
+        <v>403.9377581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.927668868900463</v>
+        <v>2.948174823576389</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.917252202233796</v>
+        <v>4.937758156909722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.91725220223379</v>
+        <v>24.93775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.25058553556713</v>
+        <v>38.27109149024305</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>65.92766886890047</v>
+        <v>65.94817482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>66.9172522022338</v>
+        <v>66.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>79.92766886890047</v>
+        <v>79.94817482357639</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>107.9276688689005</v>
+        <v>107.9481748235764</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>118.9589188689005</v>
+        <v>118.9794248235764</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.0839188689005</v>
+        <v>123.1044248235764</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.9172522022338</v>
+        <v>130.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.2505855355671</v>
+        <v>157.2710914902431</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>192.9589188689005</v>
+        <v>192.9794248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>220.9589188689005</v>
+        <v>220.9794248235764</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>221.0422522022338</v>
+        <v>221.0627581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>346.9589188689005</v>
+        <v>346.9794248235764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>353.9589188689005</v>
+        <v>353.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>366.9693355355672</v>
+        <v>366.9898414902431</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>388.9172522022338</v>
+        <v>388.9377581569097</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>389.9172522022338</v>
+        <v>389.9377581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>401.9276688689005</v>
+        <v>401.9481748235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>403.9172522022338</v>
+        <v>403.9377581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.25058553556713</v>
+        <v>17.27109149024306</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.9172522022338</v>
+        <v>17.93775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.08391886890047</v>
+        <v>24.10442482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.25058553556713</v>
+        <v>24.27109149024306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.92766886890046</v>
+        <v>37.94817482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.08044664667824</v>
+        <v>38.10095260135417</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.9172522022338</v>
+        <v>52.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.08391886890047</v>
+        <v>53.10442482357639</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.08044664667825</v>
+        <v>59.10095260135417</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.9172522022338</v>
+        <v>81.93775815690972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>108.0804466466782</v>
+        <v>108.1009526013542</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>108.9172522022338</v>
+        <v>108.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>117.9380855355671</v>
+        <v>117.9585914902431</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>121.9276688689005</v>
+        <v>121.9481748235764</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>150.9172522022338</v>
+        <v>150.9377581569097</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9172522022338</v>
+        <v>151.9377581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.1255855355671</v>
+        <v>165.1460914902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.1221133133449</v>
+        <v>178.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>178.2089188689005</v>
+        <v>178.2294248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>189.9589188689005</v>
+        <v>189.9794248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.2089188689005</v>
+        <v>192.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>199.1221133133449</v>
+        <v>199.1426192680208</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.9589188689005</v>
+        <v>200.9794248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>214.1255855355671</v>
+        <v>214.146091490243</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>226.9693355355671</v>
+        <v>226.989841490243</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>326.9589188689005</v>
+        <v>326.9794248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.2922522022338</v>
+        <v>353.3127581569097</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>361.9589188689005</v>
+        <v>361.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.9589188689005</v>
+        <v>368.9794248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>381.0804466466782</v>
+        <v>381.1009526013542</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>387.9276688689005</v>
+        <v>387.9481748235764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.0839188689005</v>
+        <v>396.1044248235764</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>23.92766886890047</v>
+        <v>23.94817482357639</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>44.92766886890046</v>
+        <v>44.94817482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.08391886890046</v>
+        <v>46.10442482357639</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.9172522022338</v>
+        <v>53.93775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>80.25058553556714</v>
+        <v>80.27109149024305</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.9172522022338</v>
+        <v>115.9377581569097</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>122.0804466466782</v>
+        <v>122.1009526013542</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>142.8860022022338</v>
+        <v>142.9065081569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.9589188689005</v>
+        <v>157.9794248235764</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>178.2922522022338</v>
+        <v>178.3127581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9693355355671</v>
+        <v>191.9898414902431</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>199.9589188689005</v>
+        <v>199.9794248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>227.2922522022338</v>
+        <v>227.3127581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.9589188689005</v>
+        <v>318.9794248235764</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>324.9693355355672</v>
+        <v>324.9898414902431</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>325.9589188689005</v>
+        <v>325.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.9589188689005</v>
+        <v>332.9794248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>335.9589188689005</v>
+        <v>335.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.9693355355672</v>
+        <v>338.9898414902431</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>339.1221133133449</v>
+        <v>339.1426192680208</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>340.1672522022338</v>
+        <v>340.1877581569097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>352.9693355355672</v>
+        <v>352.9898414902431</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -13986,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>367.2922522022338</v>
+        <v>367.3127581569097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>381.9172522022338</v>
+        <v>381.9377581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>395.9172522022338</v>
+        <v>395.9377581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.92766886890046</v>
+        <v>30.94817482357639</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.9172522022338</v>
+        <v>32.93775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.9172522022338</v>
+        <v>38.93775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.08044664667824</v>
+        <v>45.10095260135417</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.92766886890047</v>
+        <v>51.94817482357639</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.9172522022338</v>
+        <v>60.93775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.08044664667824</v>
+        <v>80.10095260135417</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.9172522022338</v>
+        <v>109.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.0839188689005</v>
+        <v>116.1044248235764</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.2505855355671</v>
+        <v>122.2710914902431</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.0839188689005</v>
+        <v>130.1044248235764</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>143.0804466466782</v>
+        <v>143.1009526013542</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.9172522022338</v>
+        <v>143.9377581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.0839188689005</v>
+        <v>144.1044248235764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.0804466466782</v>
+        <v>150.1009526013542</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.9589188689005</v>
+        <v>165.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>177.9693355355671</v>
+        <v>177.9898414902431</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.9589188689005</v>
+        <v>178.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.2922522022338</v>
+        <v>185.3127581569097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.1255855355671</v>
+        <v>186.1460914902431</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.9589188689005</v>
+        <v>186.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>212.9693355355671</v>
+        <v>212.989841490243</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.9589188689005</v>
+        <v>213.9794248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>219.9693355355671</v>
+        <v>219.989841490243</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>233.9693355355671</v>
+        <v>233.989841490243</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>319.9589188689005</v>
+        <v>319.9794248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>325.2922522022338</v>
+        <v>325.3127581569097</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>338.9589188689005</v>
+        <v>338.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>360.9589188689005</v>
+        <v>360.9794248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>367.9589188689005</v>
+        <v>367.9794248235764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>388.2505855355672</v>
+        <v>388.2710914902431</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.080446646678241</v>
+        <v>3.100952601354167</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>3.917252202233796</v>
+        <v>3.937758156909722</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.91725220223379</v>
+        <v>25.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.08391886890046</v>
+        <v>32.10442482357639</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.9172522022338</v>
+        <v>46.93775815690972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>52.25058553556713</v>
+        <v>52.27109149024305</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.08391886890047</v>
+        <v>60.10442482357639</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>67.9172522022338</v>
+        <v>67.93775815690972</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.9172522022338</v>
+        <v>80.93775815690972</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>81.08391886890047</v>
+        <v>81.10442482357639</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>109.0839188689005</v>
+        <v>109.1044248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>115.0804466466782</v>
+        <v>115.1009526013542</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.2505855355671</v>
+        <v>115.2710914902431</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.9589188689005</v>
+        <v>123.9794248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>128.9276688689005</v>
+        <v>128.9481748235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0804466466782</v>
+        <v>129.1009526013542</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2505855355671</v>
+        <v>129.2710914902431</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>149.9276688689005</v>
+        <v>149.9481748235764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0804466466782</v>
+        <v>157.1009526013542</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>158.9589188689005</v>
+        <v>158.9794248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>163.9693355355671</v>
+        <v>163.9898414902431</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>192.2089188689005</v>
+        <v>192.2294248235764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>193.9589188689005</v>
+        <v>193.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>200.1255855355671</v>
+        <v>200.146091490243</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>213.1221133133449</v>
+        <v>213.1426192680208</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>227.1221133133449</v>
+        <v>227.1426192680208</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>228.1255855355671</v>
+        <v>228.146091490243</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>325.1221133133449</v>
+        <v>325.1426192680208</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.1255855355672</v>
+        <v>326.1460914902431</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>332.1221133133449</v>
+        <v>332.1426192680208</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>333.0422522022338</v>
+        <v>333.0627581569097</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>333.1255855355672</v>
+        <v>333.1460914902431</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>339.2922522022338</v>
+        <v>339.3127581569097</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>346.2922522022338</v>
+        <v>346.3127581569097</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>354.1255855355672</v>
+        <v>354.1460914902431</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>360.2922522022338</v>
+        <v>360.3127581569097</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>367.1221133133449</v>
+        <v>367.1426192680208</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>388.0804466466782</v>
+        <v>388.1009526013542</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.08044664667824</v>
+        <v>17.10095260135417</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26344,7 +26344,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.08044664667824</v>
+        <v>31.10095260135417</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.91725220223379</v>
+        <v>31.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.25058553556713</v>
+        <v>45.27109149024305</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -26756,7 +26756,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>58.92766886890047</v>
+        <v>58.94817482357639</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.25058553556713</v>
+        <v>59.27109149024305</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27065,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.08391886890047</v>
+        <v>67.10442482357639</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -27271,7 +27271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27374,7 +27374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.9172522022338</v>
+        <v>129.9377581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.2505855355671</v>
+        <v>150.2710914902431</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.1255855355671</v>
+        <v>158.1460914902431</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>164.1221133133449</v>
+        <v>164.1426192680208</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.9589188689005</v>
+        <v>164.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.2089188689005</v>
+        <v>178.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.9589188689005</v>
+        <v>179.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -28301,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.9693355355671</v>
+        <v>184.9898414902431</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.9589188689005</v>
+        <v>185.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>198.9693355355671</v>
+        <v>198.989841490243</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.2922522022338</v>
+        <v>220.3127581569097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>234.1221133133449</v>
+        <v>234.1426192680208</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>345.9693355355672</v>
+        <v>345.9898414902431</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.1221133133449</v>
+        <v>353.1426192680208</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>380.9276688689005</v>
+        <v>380.9481748235764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>382.9172522022338</v>
+        <v>382.9377581569097</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>394.9276688689005</v>
+        <v>394.9481748235764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>395.0804466466782</v>
+        <v>395.1009526013542</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>396.9172522022338</v>
+        <v>396.9377581569097</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.25058553556713</v>
+        <v>3.271091490243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.083918868900463</v>
+        <v>4.104424823576389</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -31253,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>16.92766886890047</v>
+        <v>16.94817482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -31356,7 +31356,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.9172522022338</v>
+        <v>18.93775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -31459,7 +31459,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.08391886890046</v>
+        <v>25.10442482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -31562,7 +31562,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.9172522022338</v>
+        <v>39.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>45.9172522022338</v>
+        <v>45.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.08044664667825</v>
+        <v>52.10095260135417</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -31871,7 +31871,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.9172522022338</v>
+        <v>59.93775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.08044664667824</v>
+        <v>66.10095260135417</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.2505855355671</v>
+        <v>108.2710914902431</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -32283,7 +32283,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9172522022338</v>
+        <v>116.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -32592,7 +32592,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.0839188689005</v>
+        <v>151.1044248235764</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>199.2922522022338</v>
+        <v>199.3127581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.9589188689005</v>
+        <v>221.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.9589188689005</v>
+        <v>227.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>317.9693355355672</v>
+        <v>317.9898414902431</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>318.1221133133449</v>
+        <v>318.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.9693355355672</v>
+        <v>331.9898414902431</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -33416,7 +33416,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>332.2922522022338</v>
+        <v>332.3127581569097</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>336.9589188689005</v>
+        <v>336.9794248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>347.9589188689005</v>
+        <v>347.9794248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.9589188689005</v>
+        <v>354.9794248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>360.1221133133449</v>
+        <v>360.1426192680208</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>381.2505855355672</v>
+        <v>381.2710914902431</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>395.2505855355672</v>
+        <v>395.2710914902431</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>402.9172522022338</v>
+        <v>402.9377581569097</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -34720,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.08391886890047</v>
+        <v>18.10442482357639</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34926,7 +34926,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.25058553556713</v>
+        <v>31.27109149024306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -35132,7 +35132,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -35235,7 +35235,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.25058553556714</v>
+        <v>66.27109149024305</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -35441,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.9172522022338</v>
+        <v>122.9377581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>126.0422522022338</v>
+        <v>126.0627581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.9172522022338</v>
+        <v>144.9377581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>164.2922522022338</v>
+        <v>164.3127581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.1255855355671</v>
+        <v>179.1460914902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.1221133133449</v>
+        <v>185.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>192.1221133133449</v>
+        <v>192.1426192680208</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>192.2922522022338</v>
+        <v>192.3127581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>213.2922522022338</v>
+        <v>213.3127581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -37398,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>220.1221133133449</v>
+        <v>220.1426192680208</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>318.2922522022338</v>
+        <v>318.3127581569097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>319.1255855355672</v>
+        <v>319.1460914902431</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>346.1255855355672</v>
+        <v>346.1460914902431</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>347.1255855355672</v>
+        <v>347.1460914902431</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>361.1255855355672</v>
+        <v>361.1460914902431</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>382.0839188689005</v>
+        <v>382.1044248235764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>389.0839188689005</v>
+        <v>389.1044248235764</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -40659,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40762,7 +40762,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.08391886890046</v>
+        <v>39.10442482357639</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41380,7 +41380,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>114.9276688689005</v>
+        <v>114.9481748235764</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.1255855355671</v>
+        <v>193.1460914902431</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -42307,7 +42307,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>214.9589188689005</v>
+        <v>214.9794248235764</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42410,7 +42410,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>228.9589188689005</v>
+        <v>228.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>359.9693355355672</v>
+        <v>359.9898414902431</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.1255855355672</v>
+        <v>368.1460914902431</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -43749,7 +43749,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -43852,7 +43852,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>402.2505855355672</v>
+        <v>402.2710914902431</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>30.92766886890046</v>
+        <v>30.94817482357639</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.9172522022338</v>
+        <v>32.93775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.9172522022338</v>
+        <v>38.93775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.08044664667824</v>
+        <v>45.10095260135417</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.92766886890047</v>
+        <v>51.94817482357639</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.9172522022338</v>
+        <v>60.93775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.08044664667824</v>
+        <v>80.10095260135417</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.9172522022338</v>
+        <v>109.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.0839188689005</v>
+        <v>116.1044248235764</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.2505855355671</v>
+        <v>122.2710914902431</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.0839188689005</v>
+        <v>130.1044248235764</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>143.0804466466782</v>
+        <v>143.1009526013542</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.9172522022338</v>
+        <v>143.9377581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.0839188689005</v>
+        <v>144.1044248235764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45980,7 +45980,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.0804466466782</v>
+        <v>150.1009526013542</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.9589188689005</v>
+        <v>165.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>177.9693355355671</v>
+        <v>177.9898414902431</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.9589188689005</v>
+        <v>178.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.2922522022338</v>
+        <v>185.3127581569097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.1255855355671</v>
+        <v>186.1460914902431</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.9589188689005</v>
+        <v>186.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>212.9693355355671</v>
+        <v>212.989841490243</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.9589188689005</v>
+        <v>213.9794248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>219.9693355355671</v>
+        <v>219.989841490243</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>233.9693355355671</v>
+        <v>233.989841490243</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>319.9589188689005</v>
+        <v>319.9794248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>325.2922522022338</v>
+        <v>325.3127581569097</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>338.9589188689005</v>
+        <v>338.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>360.9589188689005</v>
+        <v>360.9794248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>367.9589188689005</v>
+        <v>367.9794248235764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>388.2505855355672</v>
+        <v>388.2710914902431</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.25058553556713</v>
+        <v>3.271091490243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.083918868900463</v>
+        <v>4.104424823576389</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>16.92766886890047</v>
+        <v>16.94817482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.9172522022338</v>
+        <v>18.93775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -49241,7 +49241,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.08391886890046</v>
+        <v>25.10442482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.9172522022338</v>
+        <v>39.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>45.9172522022338</v>
+        <v>45.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.08044664667825</v>
+        <v>52.10095260135417</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.9172522022338</v>
+        <v>59.93775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.08044664667824</v>
+        <v>66.10095260135417</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49859,7 +49859,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.2505855355671</v>
+        <v>108.2710914902431</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9172522022338</v>
+        <v>116.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.0839188689005</v>
+        <v>151.1044248235764</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>199.2922522022338</v>
+        <v>199.3127581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.9589188689005</v>
+        <v>221.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>227.9589188689005</v>
+        <v>227.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>317.9693355355672</v>
+        <v>317.9898414902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>318.1221133133449</v>
+        <v>318.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.9693355355672</v>
+        <v>331.9898414902431</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>332.2922522022338</v>
+        <v>332.3127581569097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>336.9589188689005</v>
+        <v>336.9794248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>347.9589188689005</v>
+        <v>347.9794248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.9589188689005</v>
+        <v>354.9794248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>360.1221133133449</v>
+        <v>360.1426192680208</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>381.2505855355672</v>
+        <v>381.2710914902431</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>395.2505855355672</v>
+        <v>395.2710914902431</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -52228,7 +52228,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>402.9172522022338</v>
+        <v>402.9377581569097</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.25058553556713</v>
+        <v>17.27109149024306</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.9172522022338</v>
+        <v>17.93775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.08391886890047</v>
+        <v>24.10442482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.25058553556713</v>
+        <v>24.27109149024306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.92766886890046</v>
+        <v>37.94817482357639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.08044664667824</v>
+        <v>38.10095260135417</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.9172522022338</v>
+        <v>52.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.08391886890047</v>
+        <v>53.10442482357639</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.08044664667825</v>
+        <v>59.10095260135417</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.9172522022338</v>
+        <v>81.93775815690972</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>108.0804466466782</v>
+        <v>108.1009526013542</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>108.9172522022338</v>
+        <v>108.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>117.9380855355671</v>
+        <v>117.9585914902431</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>121.9276688689005</v>
+        <v>121.9481748235764</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>150.9172522022338</v>
+        <v>150.9377581569097</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9172522022338</v>
+        <v>151.9377581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.1255855355671</v>
+        <v>165.1460914902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.1221133133449</v>
+        <v>178.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>178.2089188689005</v>
+        <v>178.2294248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>189.9589188689005</v>
+        <v>189.9794248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.2089188689005</v>
+        <v>192.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>199.1221133133449</v>
+        <v>199.1426192680208</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.9589188689005</v>
+        <v>200.9794248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>214.1255855355671</v>
+        <v>214.146091490243</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>226.9693355355671</v>
+        <v>226.989841490243</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>326.9589188689005</v>
+        <v>326.9794248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.2922522022338</v>
+        <v>353.3127581569097</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>361.9589188689005</v>
+        <v>361.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.9589188689005</v>
+        <v>368.9794248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>381.0804466466782</v>
+        <v>381.1009526013542</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>387.9276688689005</v>
+        <v>387.9481748235764</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.0839188689005</v>
+        <v>396.1044248235764</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.080446646678241</v>
+        <v>3.100952601354167</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>3.917252202233796</v>
+        <v>3.937758156909722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.91725220223379</v>
+        <v>25.93775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57720,7 +57720,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.08391886890046</v>
+        <v>32.10442482357639</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57926,7 +57926,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58132,7 +58132,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.9172522022338</v>
+        <v>46.93775815690972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>52.25058553556713</v>
+        <v>52.27109149024305</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.08391886890047</v>
+        <v>60.10442482357639</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>67.9172522022338</v>
+        <v>67.93775815690972</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.9172522022338</v>
+        <v>80.93775815690972</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>81.08391886890047</v>
+        <v>81.10442482357639</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>109.0839188689005</v>
+        <v>109.1044248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>115.0804466466782</v>
+        <v>115.1009526013542</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.2505855355671</v>
+        <v>115.2710914902431</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.9589188689005</v>
+        <v>123.9794248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>128.9276688689005</v>
+        <v>128.9481748235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0804466466782</v>
+        <v>129.1009526013542</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2505855355671</v>
+        <v>129.2710914902431</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>149.9276688689005</v>
+        <v>149.9481748235764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0804466466782</v>
+        <v>157.1009526013542</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>158.9589188689005</v>
+        <v>158.9794248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>163.9693355355671</v>
+        <v>163.9898414902431</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>192.2089188689005</v>
+        <v>192.2294248235764</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>193.9589188689005</v>
+        <v>193.9794248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>200.1255855355671</v>
+        <v>200.146091490243</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>213.1221133133449</v>
+        <v>213.1426192680208</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>227.1221133133449</v>
+        <v>227.1426192680208</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>228.1255855355671</v>
+        <v>228.146091490243</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61840,7 +61840,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>325.1221133133449</v>
+        <v>325.1426192680208</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.1255855355672</v>
+        <v>326.1460914902431</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>332.1221133133449</v>
+        <v>332.1426192680208</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>333.0422522022338</v>
+        <v>333.0627581569097</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>333.1255855355672</v>
+        <v>333.1460914902431</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>339.2922522022338</v>
+        <v>339.3127581569097</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62973,7 +62973,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>346.2922522022338</v>
+        <v>346.3127581569097</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>354.1255855355672</v>
+        <v>354.1460914902431</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>360.2922522022338</v>
+        <v>360.3127581569097</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>367.1221133133449</v>
+        <v>367.1426192680208</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>388.0804466466782</v>
+        <v>388.1009526013542</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63968,7 +63968,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.08391886890047</v>
+        <v>18.10442482357639</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64071,7 +64071,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>24.1672522022338</v>
+        <v>24.18775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -64174,7 +64174,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -64277,7 +64277,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.25058553556713</v>
+        <v>31.27109149024306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64380,7 +64380,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.1672522022338</v>
+        <v>38.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -64483,7 +64483,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -64586,7 +64586,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.25058553556714</v>
+        <v>66.27109149024305</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -64792,7 +64792,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.1672522022338</v>
+        <v>80.18775815690972</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -64895,7 +64895,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -64998,7 +64998,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65101,7 +65101,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.1672522022338</v>
+        <v>108.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65204,7 +65204,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.9172522022338</v>
+        <v>122.9377581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -65307,7 +65307,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>126.0422522022338</v>
+        <v>126.0627581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -65410,7 +65410,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.9172522022338</v>
+        <v>144.9377581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65513,7 +65513,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -65616,7 +65616,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -65719,7 +65719,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -65822,7 +65822,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>164.2089188689005</v>
+        <v>164.2294248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -65925,7 +65925,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>164.2922522022338</v>
+        <v>164.3127581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -66028,7 +66028,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.1255855355671</v>
+        <v>179.1460914902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.1221133133449</v>
+        <v>185.1426192680208</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>192.1221133133449</v>
+        <v>192.1426192680208</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>192.2922522022338</v>
+        <v>192.3127581569097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>213.2922522022338</v>
+        <v>213.3127581569097</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>220.1221133133449</v>
+        <v>220.1426192680208</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.2089188689005</v>
+        <v>227.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -67058,7 +67058,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>318.2922522022338</v>
+        <v>318.3127581569097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>319.1255855355672</v>
+        <v>319.1460914902431</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>332.2089188689005</v>
+        <v>332.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>346.1255855355672</v>
+        <v>346.1460914902431</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>347.1255855355672</v>
+        <v>347.1460914902431</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>361.1255855355672</v>
+        <v>361.1460914902431</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>382.0839188689005</v>
+        <v>382.1044248235764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>389.0839188689005</v>
+        <v>389.1044248235764</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>402.1672522022338</v>
+        <v>402.1877581569097</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -69907,7 +69907,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>23.92766886890047</v>
+        <v>23.94817482357639</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -70010,7 +70010,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -70113,7 +70113,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>44.92766886890046</v>
+        <v>44.94817482357639</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -70216,7 +70216,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.08391886890046</v>
+        <v>46.10442482357639</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -70319,7 +70319,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.9172522022338</v>
+        <v>53.93775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -70422,7 +70422,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>80.25058553556714</v>
+        <v>80.27109149024305</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -70525,7 +70525,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -70628,7 +70628,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -70731,7 +70731,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>115.9172522022338</v>
+        <v>115.9377581569097</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -70834,7 +70834,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>122.0804466466782</v>
+        <v>122.1009526013542</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -70937,7 +70937,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>142.8860022022338</v>
+        <v>142.9065081569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -71040,7 +71040,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>157.9589188689005</v>
+        <v>157.9794248235764</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>178.2922522022338</v>
+        <v>178.3127581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>191.9693355355671</v>
+        <v>191.9898414902431</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>199.9589188689005</v>
+        <v>199.9794248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>227.2922522022338</v>
+        <v>227.3127581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>235.0005855355671</v>
+        <v>235.021091490243</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>318.9589188689005</v>
+        <v>318.9794248235764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>324.9693355355672</v>
+        <v>324.9898414902431</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>325.9589188689005</v>
+        <v>325.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.9589188689005</v>
+        <v>332.9794248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>335.9589188689005</v>
+        <v>335.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.9693355355672</v>
+        <v>338.9898414902431</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>339.1221133133449</v>
+        <v>339.1426192680208</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>340.1672522022338</v>
+        <v>340.1877581569097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>352.9693355355672</v>
+        <v>352.9898414902431</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>367.2922522022338</v>
+        <v>367.3127581569097</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>381.9172522022338</v>
+        <v>381.9377581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>395.9172522022338</v>
+        <v>395.9377581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -73374,7 +73374,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.167252202233796</v>
+        <v>3.187758156909722</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -73477,7 +73477,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.08044664667824</v>
+        <v>17.10095260135417</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -73580,7 +73580,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -73683,7 +73683,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -73786,7 +73786,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>17.1672522022338</v>
+        <v>17.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -73889,7 +73889,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.08044664667824</v>
+        <v>31.10095260135417</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -73992,7 +73992,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.91725220223379</v>
+        <v>31.93775815690972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.25058553556713</v>
+        <v>45.27109149024305</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>58.92766886890047</v>
+        <v>58.94817482357639</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>59.25058553556713</v>
+        <v>59.27109149024305</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.08391886890047</v>
+        <v>67.10442482357639</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>115.1672522022338</v>
+        <v>115.1877581569097</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.9172522022338</v>
+        <v>129.9377581569097</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.2505855355671</v>
+        <v>150.2710914902431</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.1255855355671</v>
+        <v>158.1460914902431</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>164.1221133133449</v>
+        <v>164.1426192680208</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.9589188689005</v>
+        <v>164.9794248235764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.2089188689005</v>
+        <v>178.2294248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.9589188689005</v>
+        <v>179.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.9693355355671</v>
+        <v>184.9898414902431</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.9589188689005</v>
+        <v>185.9794248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>198.9693355355671</v>
+        <v>198.989841490243</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>199.2089188689005</v>
+        <v>199.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>213.2089188689005</v>
+        <v>213.2294248235764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.2089188689005</v>
+        <v>220.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.2922522022338</v>
+        <v>220.3127581569097</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>234.1221133133449</v>
+        <v>234.1426192680208</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>318.2089188689005</v>
+        <v>318.2294248235764</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>339.2089188689005</v>
+        <v>339.2294248235764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>345.9693355355672</v>
+        <v>345.9898414902431</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.1221133133449</v>
+        <v>353.1426192680208</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>367.2089188689005</v>
+        <v>367.2294248235764</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>380.9276688689005</v>
+        <v>380.9481748235764</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>381.1672522022338</v>
+        <v>381.1877581569097</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>382.9172522022338</v>
+        <v>382.9377581569097</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>394.9276688689005</v>
+        <v>394.9481748235764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>395.0804466466782</v>
+        <v>395.1009526013542</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>396.9172522022338</v>
+        <v>396.9377581569097</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -78489,7 +78489,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>31.16725220223379</v>
+        <v>31.18775815690972</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -78592,7 +78592,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.08391886890046</v>
+        <v>39.10442482357639</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -78695,7 +78695,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.1672522022338</v>
+        <v>45.18775815690972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -78798,7 +78798,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>52.1672522022338</v>
+        <v>52.18775815690972</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -78901,7 +78901,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.1672522022338</v>
+        <v>59.18775815690972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79004,7 +79004,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>66.1672522022338</v>
+        <v>66.18775815690972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>104.9172522022338</v>
+        <v>104.9377581569097</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79210,7 +79210,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>114.9276688689005</v>
+        <v>114.9481748235764</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.1672522022338</v>
+        <v>122.1877581569097</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>129.1672522022338</v>
+        <v>129.1877581569097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>143.1672522022338</v>
+        <v>143.1877581569097</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>150.1672522022338</v>
+        <v>150.1877581569097</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>157.1672522022338</v>
+        <v>157.1877581569097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>185.2089188689005</v>
+        <v>185.2294248235764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.1255855355671</v>
+        <v>193.1460914902431</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>214.9589188689005</v>
+        <v>214.9794248235764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>228.9589188689005</v>
+        <v>228.9794248235764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>234.2089188689005</v>
+        <v>234.2294248235764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>305.0422522022338</v>
+        <v>305.0627581569097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>311.9589188689005</v>
+        <v>311.9794248235764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>325.2089188689005</v>
+        <v>325.2294248235764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.2089188689005</v>
+        <v>346.2294248235764</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>353.2089188689005</v>
+        <v>353.2294248235764</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>359.9693355355672</v>
+        <v>359.9898414902431</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>360.2089188689005</v>
+        <v>360.2294248235764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.1255855355672</v>
+        <v>368.1460914902431</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>388.1672522022338</v>
+        <v>388.1877581569097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>395.1672522022338</v>
+        <v>395.1877581569097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -81785,7 +81785,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>402.2505855355672</v>
+        <v>402.2710914902431</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>

--- a/EDA_DF/Ligue1_Rank_ML.xlsx
+++ b/EDA_DF/Ligue1_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.983577653900463</v>
+        <v>4.465948277916667</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.973160987233796</v>
+        <v>6.45553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.97316098723379</v>
+        <v>26.45553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.30649432056713</v>
+        <v>39.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.98357765390047</v>
+        <v>67.46594827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.9731609872338</v>
+        <v>68.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.98357765390047</v>
+        <v>81.46594827791667</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.9835776539005</v>
+        <v>109.4659482779167</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.0148276539005</v>
+        <v>120.4971982779167</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.1398276539005</v>
+        <v>124.6221982779167</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.9731609872338</v>
+        <v>132.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.3064943205671</v>
+        <v>158.7888649445833</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>194.0148276539005</v>
+        <v>194.4971982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.0148276539005</v>
+        <v>222.4971982779167</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>222.0981609872338</v>
+        <v>222.58053161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>348.0148276539005</v>
+        <v>348.4971982779167</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.0148276539005</v>
+        <v>355.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>368.0252443205671</v>
+        <v>368.5076149445833</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>389.9731609872338</v>
+        <v>390.45553161125</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>390.9731609872338</v>
+        <v>391.45553161125</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>402.9835776539005</v>
+        <v>403.4659482779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>404.9731609872338</v>
+        <v>405.45553161125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.983577653900463</v>
+        <v>4.465948277916667</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.973160987233796</v>
+        <v>6.45553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.97316098723379</v>
+        <v>26.45553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.30649432056713</v>
+        <v>39.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>66.98357765390047</v>
+        <v>67.46594827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.9731609872338</v>
+        <v>68.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.98357765390047</v>
+        <v>81.46594827791667</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>108.9835776539005</v>
+        <v>109.4659482779167</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.0148276539005</v>
+        <v>120.4971982779167</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.1398276539005</v>
+        <v>124.6221982779167</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.9731609872338</v>
+        <v>132.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.3064943205671</v>
+        <v>158.7888649445833</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>194.0148276539005</v>
+        <v>194.4971982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.0148276539005</v>
+        <v>222.4971982779167</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>222.0981609872338</v>
+        <v>222.58053161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>348.0148276539005</v>
+        <v>348.4971982779167</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.0148276539005</v>
+        <v>355.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>368.0252443205671</v>
+        <v>368.5076149445833</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>389.9731609872338</v>
+        <v>390.45553161125</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>390.9731609872338</v>
+        <v>391.45553161125</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>402.9835776539005</v>
+        <v>403.4659482779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>404.9731609872338</v>
+        <v>405.45553161125</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.30649432056713</v>
+        <v>18.78886494458333</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.9731609872338</v>
+        <v>19.45553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.13982765390046</v>
+        <v>25.62219827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.30649432056713</v>
+        <v>25.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.98357765390046</v>
+        <v>39.46594827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.13635543167824</v>
+        <v>39.61872605569445</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.9731609872338</v>
+        <v>54.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.13982765390046</v>
+        <v>54.62219827791666</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.13635543167824</v>
+        <v>60.61872605569444</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.9731609872338</v>
+        <v>83.45553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.1363554316782</v>
+        <v>109.6187260556945</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.9731609872338</v>
+        <v>110.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>118.9939943205671</v>
+        <v>119.4763649445833</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.9835776539005</v>
+        <v>123.4659482779167</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.9731609872338</v>
+        <v>152.45553161125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.9731609872338</v>
+        <v>153.45553161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.1814943205671</v>
+        <v>166.6638649445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1780220983449</v>
+        <v>179.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.2648276539005</v>
+        <v>179.7471982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>191.0148276539005</v>
+        <v>191.4971982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.2648276539005</v>
+        <v>193.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1780220983449</v>
+        <v>200.6603927223611</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>202.0148276539005</v>
+        <v>202.4971982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.1814943205671</v>
+        <v>215.6638649445833</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.0252443205671</v>
+        <v>228.5076149445833</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>328.0148276539005</v>
+        <v>328.4971982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.3481609872338</v>
+        <v>354.83053161125</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>363.0148276539005</v>
+        <v>363.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>370.0148276539005</v>
+        <v>370.4971982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.1363554316782</v>
+        <v>382.6187260556944</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>388.9835776539005</v>
+        <v>389.4659482779167</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>397.1398276539005</v>
+        <v>397.6221982779167</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>24.98357765390046</v>
+        <v>25.46594827791667</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.98357765390046</v>
+        <v>46.46594827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.13982765390046</v>
+        <v>47.62219827791667</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.9731609872338</v>
+        <v>55.45553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.30649432056713</v>
+        <v>81.78886494458332</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.9731609872338</v>
+        <v>117.45553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.1363554316782</v>
+        <v>123.6187260556945</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>143.9419109872338</v>
+        <v>144.42428161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.0148276539005</v>
+        <v>159.4971982779167</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>179.3481609872338</v>
+        <v>179.83053161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.0252443205671</v>
+        <v>193.5076149445833</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.0148276539005</v>
+        <v>201.4971982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>228.3481609872338</v>
+        <v>228.83053161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>320.0148276539005</v>
+        <v>320.4971982779167</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.0252443205671</v>
+        <v>326.5076149445833</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>327.0148276539005</v>
+        <v>327.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.0148276539005</v>
+        <v>334.4971982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>337.0148276539005</v>
+        <v>337.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>340.0252443205671</v>
+        <v>340.5076149445833</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>340.1780220983449</v>
+        <v>340.6603927223611</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>341.2231609872338</v>
+        <v>341.70553161125</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.0252443205671</v>
+        <v>354.5076149445833</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -13986,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.3481609872338</v>
+        <v>368.83053161125</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.9731609872338</v>
+        <v>383.45553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.9731609872338</v>
+        <v>397.45553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.98357765390046</v>
+        <v>32.46594827791667</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.9731609872338</v>
+        <v>34.45553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.9731609872338</v>
+        <v>40.45553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.13635543167824</v>
+        <v>46.61872605569445</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.98357765390046</v>
+        <v>53.46594827791666</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.9731609872338</v>
+        <v>62.45553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.13635543167824</v>
+        <v>81.61872605569444</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.9731609872338</v>
+        <v>111.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.1398276539005</v>
+        <v>117.6221982779167</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.3064943205671</v>
+        <v>123.7888649445833</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>131.1398276539005</v>
+        <v>131.6221982779167</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.1363554316782</v>
+        <v>144.6187260556945</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.9731609872338</v>
+        <v>145.45553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.1398276539005</v>
+        <v>145.6221982779167</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.1363554316782</v>
+        <v>151.6187260556945</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>167.0148276539005</v>
+        <v>167.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.0252443205671</v>
+        <v>179.5076149445833</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.0148276539005</v>
+        <v>180.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.3481609872338</v>
+        <v>186.83053161125</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.1814943205671</v>
+        <v>187.6638649445833</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>188.0148276539005</v>
+        <v>188.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.0252443205671</v>
+        <v>214.5076149445833</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.0148276539005</v>
+        <v>215.4971982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.0252443205671</v>
+        <v>221.5076149445833</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.0252443205671</v>
+        <v>235.5076149445833</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>321.0148276539005</v>
+        <v>321.4971982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>326.3481609872338</v>
+        <v>326.83053161125</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0148276539005</v>
+        <v>340.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>362.0148276539005</v>
+        <v>362.4971982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>369.0148276539005</v>
+        <v>369.4971982779167</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.3064943205671</v>
+        <v>389.7888649445833</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.136355431678241</v>
+        <v>4.618726055694445</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.973160987233796</v>
+        <v>5.455531611250001</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.97316098723379</v>
+        <v>27.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.13982765390046</v>
+        <v>33.62219827791667</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>47.9731609872338</v>
+        <v>48.45553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>53.30649432056713</v>
+        <v>53.78886494458333</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>61.13982765390046</v>
+        <v>61.62219827791666</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.9731609872338</v>
+        <v>69.45553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.9731609872338</v>
+        <v>82.45553161125</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>82.13982765390047</v>
+        <v>82.62219827791667</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>110.1398276539005</v>
+        <v>110.6221982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>116.1363554316782</v>
+        <v>116.6187260556945</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.3064943205671</v>
+        <v>116.7888649445833</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>125.0148276539005</v>
+        <v>125.4971982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>129.9835776539005</v>
+        <v>130.4659482779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.1363554316782</v>
+        <v>130.6187260556945</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.3064943205671</v>
+        <v>130.7888649445833</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>150.9835776539005</v>
+        <v>151.4659482779167</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.1363554316782</v>
+        <v>158.6187260556945</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>160.0148276539005</v>
+        <v>160.4971982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>165.0252443205671</v>
+        <v>165.5076149445833</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>193.2648276539005</v>
+        <v>193.7471982779167</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>195.0148276539005</v>
+        <v>195.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>201.1814943205671</v>
+        <v>201.6638649445833</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>214.1780220983449</v>
+        <v>214.6603927223611</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>228.1780220983449</v>
+        <v>228.6603927223611</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>229.1814943205671</v>
+        <v>229.6638649445833</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>326.1780220983449</v>
+        <v>326.6603927223611</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>327.1814943205671</v>
+        <v>327.6638649445833</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>333.1780220983449</v>
+        <v>333.6603927223611</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>334.0981609872338</v>
+        <v>334.58053161125</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>334.1814943205671</v>
+        <v>334.6638649445833</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.3481609872338</v>
+        <v>340.83053161125</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>347.3481609872338</v>
+        <v>347.83053161125</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>355.1814943205671</v>
+        <v>355.6638649445833</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>361.3481609872338</v>
+        <v>361.83053161125</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>368.1780220983449</v>
+        <v>368.6603927223611</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>389.1363554316782</v>
+        <v>389.6187260556944</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.13635543167824</v>
+        <v>18.61872605569445</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26344,7 +26344,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.13635543167824</v>
+        <v>32.61872605569445</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.9731609872338</v>
+        <v>33.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.30649432056713</v>
+        <v>46.78886494458333</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -26756,7 +26756,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.98357765390046</v>
+        <v>60.46594827791666</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.30649432056713</v>
+        <v>60.78886494458333</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27065,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.13982765390047</v>
+        <v>68.62219827791667</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -27271,7 +27271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27374,7 +27374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>130.9731609872338</v>
+        <v>131.45553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.3064943205671</v>
+        <v>151.7888649445833</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.1814943205671</v>
+        <v>159.6638649445833</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.1780220983449</v>
+        <v>165.6603927223611</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.0148276539005</v>
+        <v>166.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.2648276539005</v>
+        <v>179.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.0148276539005</v>
+        <v>181.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -28301,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.0252443205671</v>
+        <v>186.5076149445833</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>187.0148276539005</v>
+        <v>187.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.0252443205671</v>
+        <v>200.5076149445833</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.3481609872338</v>
+        <v>221.83053161125</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.1780220983449</v>
+        <v>235.6603927223611</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.0252443205671</v>
+        <v>347.5076149445833</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.1780220983449</v>
+        <v>354.6603927223611</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>381.9835776539005</v>
+        <v>382.4659482779167</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>383.9731609872338</v>
+        <v>384.45553161125</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>395.9835776539005</v>
+        <v>396.4659482779167</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>396.1363554316782</v>
+        <v>396.6187260556944</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>397.9731609872338</v>
+        <v>398.45553161125</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.306494320567129</v>
+        <v>4.788864944583334</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.139827653900463</v>
+        <v>5.622198277916667</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -31253,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.98357765390046</v>
+        <v>18.46594827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -31356,7 +31356,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.9731609872338</v>
+        <v>20.45553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -31459,7 +31459,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.13982765390046</v>
+        <v>26.62219827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -31562,7 +31562,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.9731609872338</v>
+        <v>41.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.9731609872338</v>
+        <v>47.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.13635543167824</v>
+        <v>53.61872605569444</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -31871,7 +31871,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.9731609872338</v>
+        <v>61.45553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.13635543167824</v>
+        <v>67.61872605569444</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.3064943205671</v>
+        <v>109.7888649445833</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -32283,7 +32283,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.9731609872338</v>
+        <v>118.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -32592,7 +32592,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.1398276539005</v>
+        <v>152.6221982779167</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>200.3481609872338</v>
+        <v>200.83053161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>223.0148276539005</v>
+        <v>223.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>229.0148276539005</v>
+        <v>229.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0252443205671</v>
+        <v>319.5076149445833</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>319.1780220983449</v>
+        <v>319.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>333.0252443205671</v>
+        <v>333.5076149445833</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -33416,7 +33416,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.3481609872338</v>
+        <v>333.83053161125</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.0148276539005</v>
+        <v>338.4971982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>349.0148276539005</v>
+        <v>349.4971982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>356.0148276539005</v>
+        <v>356.4971982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>361.1780220983449</v>
+        <v>361.6603927223611</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>382.3064943205671</v>
+        <v>382.7888649445833</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>396.3064943205671</v>
+        <v>396.7888649445833</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>403.9731609872338</v>
+        <v>404.45553161125</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -34720,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.13982765390046</v>
+        <v>19.62219827791667</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34926,7 +34926,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.30649432056713</v>
+        <v>32.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -35132,7 +35132,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -35235,7 +35235,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.30649432056713</v>
+        <v>67.78886494458332</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -35441,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.9731609872338</v>
+        <v>124.45553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>127.0981609872338</v>
+        <v>127.58053161125</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>145.9731609872338</v>
+        <v>146.45553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.3481609872338</v>
+        <v>165.83053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.1814943205671</v>
+        <v>180.6638649445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.1780220983449</v>
+        <v>186.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.1780220983449</v>
+        <v>193.6603927223611</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>193.3481609872338</v>
+        <v>193.83053161125</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>214.3481609872338</v>
+        <v>214.83053161125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -37398,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>221.1780220983449</v>
+        <v>221.6603927223611</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>319.3481609872338</v>
+        <v>319.83053161125</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>320.1814943205671</v>
+        <v>320.6638649445833</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>347.1814943205671</v>
+        <v>347.6638649445833</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>348.1814943205671</v>
+        <v>348.6638649445833</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>362.1814943205671</v>
+        <v>362.6638649445833</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>383.1398276539005</v>
+        <v>383.6221982779167</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>390.1398276539005</v>
+        <v>390.6221982779167</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -40659,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40762,7 +40762,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.13982765390046</v>
+        <v>40.62219827791667</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41380,7 +41380,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>115.9835776539005</v>
+        <v>116.4659482779167</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>194.1814943205671</v>
+        <v>194.6638649445833</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -42307,7 +42307,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>216.0148276539005</v>
+        <v>216.4971982779167</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42410,7 +42410,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>230.0148276539005</v>
+        <v>230.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>361.0252443205671</v>
+        <v>361.5076149445833</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>369.1814943205671</v>
+        <v>369.6638649445833</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -43749,7 +43749,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -43852,7 +43852,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>403.3064943205671</v>
+        <v>403.7888649445833</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.98357765390046</v>
+        <v>32.46594827791667</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.9731609872338</v>
+        <v>34.45553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.9731609872338</v>
+        <v>40.45553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.13635543167824</v>
+        <v>46.61872605569445</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.98357765390046</v>
+        <v>53.46594827791666</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.9731609872338</v>
+        <v>62.45553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.13635543167824</v>
+        <v>81.61872605569444</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.9731609872338</v>
+        <v>111.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.1398276539005</v>
+        <v>117.6221982779167</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.3064943205671</v>
+        <v>123.7888649445833</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>131.1398276539005</v>
+        <v>131.6221982779167</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.1363554316782</v>
+        <v>144.6187260556945</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.9731609872338</v>
+        <v>145.45553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.1398276539005</v>
+        <v>145.6221982779167</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45980,7 +45980,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.1363554316782</v>
+        <v>151.6187260556945</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>167.0148276539005</v>
+        <v>167.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.0252443205671</v>
+        <v>179.5076149445833</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.0148276539005</v>
+        <v>180.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.3481609872338</v>
+        <v>186.83053161125</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.1814943205671</v>
+        <v>187.6638649445833</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>188.0148276539005</v>
+        <v>188.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.0252443205671</v>
+        <v>214.5076149445833</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.0148276539005</v>
+        <v>215.4971982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.0252443205671</v>
+        <v>221.5076149445833</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.0252443205671</v>
+        <v>235.5076149445833</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>321.0148276539005</v>
+        <v>321.4971982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>326.3481609872338</v>
+        <v>326.83053161125</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0148276539005</v>
+        <v>340.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>362.0148276539005</v>
+        <v>362.4971982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>369.0148276539005</v>
+        <v>369.4971982779167</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.3064943205671</v>
+        <v>389.7888649445833</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.306494320567129</v>
+        <v>4.788864944583334</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.139827653900463</v>
+        <v>5.622198277916667</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.98357765390046</v>
+        <v>18.46594827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.9731609872338</v>
+        <v>20.45553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -49241,7 +49241,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.13982765390046</v>
+        <v>26.62219827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.9731609872338</v>
+        <v>41.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.9731609872338</v>
+        <v>47.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.13635543167824</v>
+        <v>53.61872605569444</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.9731609872338</v>
+        <v>61.45553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.13635543167824</v>
+        <v>67.61872605569444</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49859,7 +49859,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.3064943205671</v>
+        <v>109.7888649445833</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.9731609872338</v>
+        <v>118.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.1398276539005</v>
+        <v>152.6221982779167</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>200.3481609872338</v>
+        <v>200.83053161125</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>223.0148276539005</v>
+        <v>223.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>229.0148276539005</v>
+        <v>229.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.0252443205671</v>
+        <v>319.5076149445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>319.1780220983449</v>
+        <v>319.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>333.0252443205671</v>
+        <v>333.5076149445833</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.3481609872338</v>
+        <v>333.83053161125</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.0148276539005</v>
+        <v>338.4971982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>349.0148276539005</v>
+        <v>349.4971982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>356.0148276539005</v>
+        <v>356.4971982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>361.1780220983449</v>
+        <v>361.6603927223611</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>382.3064943205671</v>
+        <v>382.7888649445833</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>396.3064943205671</v>
+        <v>396.7888649445833</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -52228,7 +52228,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>403.9731609872338</v>
+        <v>404.45553161125</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.30649432056713</v>
+        <v>18.78886494458333</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.9731609872338</v>
+        <v>19.45553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.13982765390046</v>
+        <v>25.62219827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.30649432056713</v>
+        <v>25.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.98357765390046</v>
+        <v>39.46594827791667</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.13635543167824</v>
+        <v>39.61872605569445</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.9731609872338</v>
+        <v>54.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.13982765390046</v>
+        <v>54.62219827791666</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.13635543167824</v>
+        <v>60.61872605569444</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.9731609872338</v>
+        <v>83.45553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.1363554316782</v>
+        <v>109.6187260556945</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.9731609872338</v>
+        <v>110.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>118.9939943205671</v>
+        <v>119.4763649445833</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.9835776539005</v>
+        <v>123.4659482779167</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.9731609872338</v>
+        <v>152.45553161125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.9731609872338</v>
+        <v>153.45553161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.1814943205671</v>
+        <v>166.6638649445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1780220983449</v>
+        <v>179.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.2648276539005</v>
+        <v>179.7471982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>191.0148276539005</v>
+        <v>191.4971982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.2648276539005</v>
+        <v>193.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1780220983449</v>
+        <v>200.6603927223611</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>202.0148276539005</v>
+        <v>202.4971982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.1814943205671</v>
+        <v>215.6638649445833</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.0252443205671</v>
+        <v>228.5076149445833</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>328.0148276539005</v>
+        <v>328.4971982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.3481609872338</v>
+        <v>354.83053161125</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>363.0148276539005</v>
+        <v>363.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>370.0148276539005</v>
+        <v>370.4971982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.1363554316782</v>
+        <v>382.6187260556944</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>388.9835776539005</v>
+        <v>389.4659482779167</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>397.1398276539005</v>
+        <v>397.6221982779167</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.136355431678241</v>
+        <v>4.618726055694445</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.973160987233796</v>
+        <v>5.455531611250001</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>26.97316098723379</v>
+        <v>27.45553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57720,7 +57720,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.13982765390046</v>
+        <v>33.62219827791667</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57926,7 +57926,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58132,7 +58132,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>47.9731609872338</v>
+        <v>48.45553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>53.30649432056713</v>
+        <v>53.78886494458333</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>61.13982765390046</v>
+        <v>61.62219827791666</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.9731609872338</v>
+        <v>69.45553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.9731609872338</v>
+        <v>82.45553161125</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>82.13982765390047</v>
+        <v>82.62219827791667</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>110.1398276539005</v>
+        <v>110.6221982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>116.1363554316782</v>
+        <v>116.6187260556945</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.3064943205671</v>
+        <v>116.7888649445833</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>125.0148276539005</v>
+        <v>125.4971982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>129.9835776539005</v>
+        <v>130.4659482779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.1363554316782</v>
+        <v>130.6187260556945</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.3064943205671</v>
+        <v>130.7888649445833</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>150.9835776539005</v>
+        <v>151.4659482779167</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.1363554316782</v>
+        <v>158.6187260556945</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>160.0148276539005</v>
+        <v>160.4971982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>165.0252443205671</v>
+        <v>165.5076149445833</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>193.2648276539005</v>
+        <v>193.7471982779167</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>195.0148276539005</v>
+        <v>195.4971982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>201.1814943205671</v>
+        <v>201.6638649445833</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>214.1780220983449</v>
+        <v>214.6603927223611</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>228.1780220983449</v>
+        <v>228.6603927223611</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>229.1814943205671</v>
+        <v>229.6638649445833</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61840,7 +61840,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>326.1780220983449</v>
+        <v>326.6603927223611</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>327.1814943205671</v>
+        <v>327.6638649445833</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>333.1780220983449</v>
+        <v>333.6603927223611</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>334.0981609872338</v>
+        <v>334.58053161125</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>334.1814943205671</v>
+        <v>334.6638649445833</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.3481609872338</v>
+        <v>340.83053161125</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62973,7 +62973,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>347.3481609872338</v>
+        <v>347.83053161125</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>355.1814943205671</v>
+        <v>355.6638649445833</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>361.3481609872338</v>
+        <v>361.83053161125</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>368.1780220983449</v>
+        <v>368.6603927223611</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>389.1363554316782</v>
+        <v>389.6187260556944</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63968,7 +63968,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.13982765390046</v>
+        <v>19.62219827791667</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64071,7 +64071,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.22316098723379</v>
+        <v>25.70553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -64174,7 +64174,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -64277,7 +64277,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.30649432056713</v>
+        <v>32.78886494458333</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64380,7 +64380,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.2231609872338</v>
+        <v>39.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -64483,7 +64483,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -64586,7 +64586,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.30649432056713</v>
+        <v>67.78886494458332</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -64792,7 +64792,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.2231609872338</v>
+        <v>81.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -64895,7 +64895,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -64998,7 +64998,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65101,7 +65101,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.2231609872338</v>
+        <v>109.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65204,7 +65204,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.9731609872338</v>
+        <v>124.45553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -65307,7 +65307,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>127.0981609872338</v>
+        <v>127.58053161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -65410,7 +65410,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>145.9731609872338</v>
+        <v>146.45553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65513,7 +65513,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -65616,7 +65616,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -65719,7 +65719,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -65822,7 +65822,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.2648276539005</v>
+        <v>165.7471982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -65925,7 +65925,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.3481609872338</v>
+        <v>165.83053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -66028,7 +66028,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.1814943205671</v>
+        <v>180.6638649445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.1780220983449</v>
+        <v>186.6603927223611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.1780220983449</v>
+        <v>193.6603927223611</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>193.3481609872338</v>
+        <v>193.83053161125</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>214.3481609872338</v>
+        <v>214.83053161125</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>221.1780220983449</v>
+        <v>221.6603927223611</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.2648276539005</v>
+        <v>228.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -67058,7 +67058,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>319.3481609872338</v>
+        <v>319.83053161125</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>320.1814943205671</v>
+        <v>320.6638649445833</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.2648276539005</v>
+        <v>333.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>347.1814943205671</v>
+        <v>347.6638649445833</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>348.1814943205671</v>
+        <v>348.6638649445833</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>362.1814943205671</v>
+        <v>362.6638649445833</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>383.1398276539005</v>
+        <v>383.6221982779167</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>390.1398276539005</v>
+        <v>390.6221982779167</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>403.2231609872338</v>
+        <v>403.70553161125</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -69907,7 +69907,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>24.98357765390046</v>
+        <v>25.46594827791667</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -70010,7 +70010,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -70113,7 +70113,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>45.98357765390046</v>
+        <v>46.46594827791667</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -70216,7 +70216,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.13982765390046</v>
+        <v>47.62219827791667</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -70319,7 +70319,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.9731609872338</v>
+        <v>55.45553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -70422,7 +70422,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.30649432056713</v>
+        <v>81.78886494458332</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -70525,7 +70525,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -70628,7 +70628,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -70731,7 +70731,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.9731609872338</v>
+        <v>117.45553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -70834,7 +70834,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.1363554316782</v>
+        <v>123.6187260556945</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -70937,7 +70937,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>143.9419109872338</v>
+        <v>144.42428161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -71040,7 +71040,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.0148276539005</v>
+        <v>159.4971982779167</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>179.3481609872338</v>
+        <v>179.83053161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.0252443205671</v>
+        <v>193.5076149445833</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.0148276539005</v>
+        <v>201.4971982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>228.3481609872338</v>
+        <v>228.83053161125</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>236.0564943205671</v>
+        <v>236.5388649445833</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>320.0148276539005</v>
+        <v>320.4971982779167</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.0252443205671</v>
+        <v>326.5076149445833</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>327.0148276539005</v>
+        <v>327.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.0148276539005</v>
+        <v>334.4971982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>337.0148276539005</v>
+        <v>337.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>340.0252443205671</v>
+        <v>340.5076149445833</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>340.1780220983449</v>
+        <v>340.6603927223611</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>341.2231609872338</v>
+        <v>341.70553161125</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.0252443205671</v>
+        <v>354.5076149445833</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.3481609872338</v>
+        <v>368.83053161125</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.9731609872338</v>
+        <v>383.45553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.9731609872338</v>
+        <v>397.45553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -73374,7 +73374,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.223160987233796</v>
+        <v>4.705531611250001</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -73477,7 +73477,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.13635543167824</v>
+        <v>18.61872605569445</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -73580,7 +73580,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -73683,7 +73683,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -73786,7 +73786,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.2231609872338</v>
+        <v>18.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -73889,7 +73889,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.13635543167824</v>
+        <v>32.61872605569445</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -73992,7 +73992,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.9731609872338</v>
+        <v>33.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.30649432056713</v>
+        <v>46.78886494458333</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.98357765390046</v>
+        <v>60.46594827791666</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.30649432056713</v>
+        <v>60.78886494458333</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.13982765390047</v>
+        <v>68.62219827791667</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>116.2231609872338</v>
+        <v>116.70553161125</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>130.9731609872338</v>
+        <v>131.45553161125</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.3064943205671</v>
+        <v>151.7888649445833</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.1814943205671</v>
+        <v>159.6638649445833</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.1780220983449</v>
+        <v>165.6603927223611</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.0148276539005</v>
+        <v>166.4971982779167</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.2648276539005</v>
+        <v>179.7471982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.0148276539005</v>
+        <v>181.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.0252443205671</v>
+        <v>186.5076149445833</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>187.0148276539005</v>
+        <v>187.4971982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.0252443205671</v>
+        <v>200.5076149445833</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2648276539005</v>
+        <v>200.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.2648276539005</v>
+        <v>214.7471982779167</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.2648276539005</v>
+        <v>221.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.3481609872338</v>
+        <v>221.83053161125</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.1780220983449</v>
+        <v>235.6603927223611</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>319.2648276539005</v>
+        <v>319.7471982779167</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.2648276539005</v>
+        <v>340.7471982779167</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.0252443205671</v>
+        <v>347.5076149445833</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.1780220983449</v>
+        <v>354.6603927223611</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.2648276539005</v>
+        <v>368.7471982779167</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>381.9835776539005</v>
+        <v>382.4659482779167</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>382.2231609872338</v>
+        <v>382.70553161125</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>383.9731609872338</v>
+        <v>384.45553161125</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>395.9835776539005</v>
+        <v>396.4659482779167</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>396.1363554316782</v>
+        <v>396.6187260556944</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>397.9731609872338</v>
+        <v>398.45553161125</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -78489,7 +78489,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.2231609872338</v>
+        <v>32.70553161125</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -78592,7 +78592,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.13982765390046</v>
+        <v>40.62219827791667</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -78695,7 +78695,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.2231609872338</v>
+        <v>46.70553161125</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -78798,7 +78798,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.2231609872338</v>
+        <v>53.70553161125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -78901,7 +78901,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.2231609872338</v>
+        <v>60.70553161125</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79004,7 +79004,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.2231609872338</v>
+        <v>67.70553161125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>105.9731609872338</v>
+        <v>106.45553161125</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79210,7 +79210,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>115.9835776539005</v>
+        <v>116.4659482779167</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.2231609872338</v>
+        <v>123.70553161125</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.2231609872338</v>
+        <v>130.70553161125</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.2231609872338</v>
+        <v>144.70553161125</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.2231609872338</v>
+        <v>151.70553161125</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.2231609872338</v>
+        <v>158.70553161125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>186.2648276539005</v>
+        <v>186.7471982779167</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>194.1814943205671</v>
+        <v>194.6638649445833</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>216.0148276539005</v>
+        <v>216.4971982779167</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>230.0148276539005</v>
+        <v>230.4971982779167</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.2648276539005</v>
+        <v>235.7471982779167</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>306.0981609872338</v>
+        <v>306.58053161125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.0148276539005</v>
+        <v>313.4971982779167</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>326.2648276539005</v>
+        <v>326.7471982779167</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.2648276539005</v>
+        <v>347.7471982779167</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>354.2648276539005</v>
+        <v>354.7471982779167</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>361.0252443205671</v>
+        <v>361.5076149445833</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>361.2648276539005</v>
+        <v>361.7471982779167</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>369.1814943205671</v>
+        <v>369.6638649445833</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>389.2231609872338</v>
+        <v>389.70553161125</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.2231609872338</v>
+        <v>396.70553161125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -81785,7 +81785,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>403.3064943205671</v>
+        <v>403.7888649445833</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>

--- a/EDA_DF/Ligue1_Rank_ML.xlsx
+++ b/EDA_DF/Ligue1_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.465948277916667</v>
+        <v>4.573291374710648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>6.45553161125</v>
+        <v>6.562874708043982</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.45553161125</v>
+        <v>26.56287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.78886494458333</v>
+        <v>39.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.46594827791667</v>
+        <v>67.57329137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>68.45553161125</v>
+        <v>68.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.46594827791667</v>
+        <v>81.57329137471065</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.4659482779167</v>
+        <v>109.5732913747106</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.4971982779167</v>
+        <v>120.6045413747106</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.6221982779167</v>
+        <v>124.7295413747106</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>132.45553161125</v>
+        <v>132.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.7888649445833</v>
+        <v>158.8962080413773</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>194.4971982779167</v>
+        <v>194.6045413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.4971982779167</v>
+        <v>222.6045413747106</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>222.58053161125</v>
+        <v>222.687874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>348.4971982779167</v>
+        <v>348.6045413747107</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.4971982779167</v>
+        <v>355.6045413747107</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>368.5076149445833</v>
+        <v>368.6149580413773</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>390.45553161125</v>
+        <v>390.562874708044</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>391.45553161125</v>
+        <v>391.562874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>403.4659482779167</v>
+        <v>403.5732913747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>405.45553161125</v>
+        <v>405.562874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.465948277916667</v>
+        <v>4.573291374710648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>6.45553161125</v>
+        <v>6.562874708043982</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.45553161125</v>
+        <v>26.56287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.78886494458333</v>
+        <v>39.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>67.46594827791667</v>
+        <v>67.57329137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>68.45553161125</v>
+        <v>68.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.46594827791667</v>
+        <v>81.57329137471065</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>109.4659482779167</v>
+        <v>109.5732913747106</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>120.4971982779167</v>
+        <v>120.6045413747106</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>124.6221982779167</v>
+        <v>124.7295413747106</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>132.45553161125</v>
+        <v>132.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>158.7888649445833</v>
+        <v>158.8962080413773</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>194.4971982779167</v>
+        <v>194.6045413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.4971982779167</v>
+        <v>222.6045413747106</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>222.58053161125</v>
+        <v>222.687874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>348.4971982779167</v>
+        <v>348.6045413747107</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.4971982779167</v>
+        <v>355.6045413747107</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>368.5076149445833</v>
+        <v>368.6149580413773</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>390.45553161125</v>
+        <v>390.562874708044</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>391.45553161125</v>
+        <v>391.562874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>403.4659482779167</v>
+        <v>403.5732913747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>405.45553161125</v>
+        <v>405.562874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.78886494458333</v>
+        <v>18.89620804137731</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.45553161125</v>
+        <v>19.56287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.62219827791667</v>
+        <v>25.72954137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.78886494458333</v>
+        <v>25.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.46594827791667</v>
+        <v>39.57329137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.61872605569445</v>
+        <v>39.72606915248843</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.45553161125</v>
+        <v>54.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.62219827791666</v>
+        <v>54.72954137471065</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.61872605569444</v>
+        <v>60.72606915248843</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>83.45553161125</v>
+        <v>83.56287470804398</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.6187260556945</v>
+        <v>109.7260691524884</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.45553161125</v>
+        <v>110.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>119.4763649445833</v>
+        <v>119.5837080413773</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.4659482779167</v>
+        <v>123.5732913747106</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.45553161125</v>
+        <v>152.562874708044</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>153.45553161125</v>
+        <v>153.562874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.6638649445833</v>
+        <v>166.7712080413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.6603927223611</v>
+        <v>179.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.7471982779167</v>
+        <v>179.8545413747106</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>191.4971982779167</v>
+        <v>191.6045413747106</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.7471982779167</v>
+        <v>193.8545413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.6603927223611</v>
+        <v>200.7677358191551</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>202.4971982779167</v>
+        <v>202.6045413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.6638649445833</v>
+        <v>215.7712080413773</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.5076149445833</v>
+        <v>228.6149580413773</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>328.4971982779167</v>
+        <v>328.6045413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.83053161125</v>
+        <v>354.937874708044</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>363.4971982779167</v>
+        <v>363.6045413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>370.4971982779167</v>
+        <v>370.6045413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.6187260556944</v>
+        <v>382.7260691524884</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.4659482779167</v>
+        <v>389.5732913747107</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>397.6221982779167</v>
+        <v>397.7295413747107</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.46594827791667</v>
+        <v>25.57329137471065</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.46594827791667</v>
+        <v>46.57329137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.62219827791667</v>
+        <v>47.72954137471065</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>55.45553161125</v>
+        <v>55.56287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.78886494458332</v>
+        <v>81.89620804137732</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>117.45553161125</v>
+        <v>117.562874708044</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.6187260556945</v>
+        <v>123.7260691524884</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.42428161125</v>
+        <v>144.531624708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.4971982779167</v>
+        <v>159.6045413747106</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>179.83053161125</v>
+        <v>179.937874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.5076149445833</v>
+        <v>193.6149580413773</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.4971982779167</v>
+        <v>201.6045413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>228.83053161125</v>
+        <v>228.937874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>320.4971982779167</v>
+        <v>320.6045413747107</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.5076149445833</v>
+        <v>326.6149580413773</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>327.4971982779167</v>
+        <v>327.6045413747107</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.4971982779167</v>
+        <v>334.6045413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>337.4971982779167</v>
+        <v>337.6045413747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>340.5076149445833</v>
+        <v>340.6149580413773</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>340.6603927223611</v>
+        <v>340.7677358191551</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>341.70553161125</v>
+        <v>341.812874708044</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.5076149445833</v>
+        <v>354.6149580413773</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -13986,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.83053161125</v>
+        <v>368.937874708044</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>383.45553161125</v>
+        <v>383.562874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>397.45553161125</v>
+        <v>397.562874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.46594827791667</v>
+        <v>32.57329137471065</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>34.45553161125</v>
+        <v>34.56287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.45553161125</v>
+        <v>40.56287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.61872605569445</v>
+        <v>46.72606915248843</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.46594827791666</v>
+        <v>53.57329137471065</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>62.45553161125</v>
+        <v>62.56287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.61872605569444</v>
+        <v>81.72606915248842</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>111.45553161125</v>
+        <v>111.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.6221982779167</v>
+        <v>117.7295413747106</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.7888649445833</v>
+        <v>123.8962080413773</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>131.6221982779167</v>
+        <v>131.7295413747106</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.6187260556945</v>
+        <v>144.7260691524884</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>145.45553161125</v>
+        <v>145.562874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.6221982779167</v>
+        <v>145.7295413747106</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.6187260556945</v>
+        <v>151.7260691524884</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>167.4971982779167</v>
+        <v>167.6045413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.5076149445833</v>
+        <v>179.6149580413773</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.4971982779167</v>
+        <v>180.6045413747106</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.83053161125</v>
+        <v>186.937874708044</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.6638649445833</v>
+        <v>187.7712080413773</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>188.4971982779167</v>
+        <v>188.6045413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.5076149445833</v>
+        <v>214.6149580413773</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.4971982779167</v>
+        <v>215.6045413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.5076149445833</v>
+        <v>221.6149580413773</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.5076149445833</v>
+        <v>235.6149580413773</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>321.4971982779167</v>
+        <v>321.6045413747107</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>326.83053161125</v>
+        <v>326.937874708044</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.4971982779167</v>
+        <v>340.6045413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>362.4971982779167</v>
+        <v>362.6045413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>369.4971982779167</v>
+        <v>369.6045413747107</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.7888649445833</v>
+        <v>389.8962080413773</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.618726055694445</v>
+        <v>4.726069152488425</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.455531611250001</v>
+        <v>5.562874708043982</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>27.45553161125</v>
+        <v>27.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.62219827791667</v>
+        <v>33.72954137471065</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>48.45553161125</v>
+        <v>48.56287470804398</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>53.78886494458333</v>
+        <v>53.89620804137731</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>61.62219827791666</v>
+        <v>61.72954137471065</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>69.45553161125</v>
+        <v>69.56287470804398</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>82.45553161125</v>
+        <v>82.56287470804398</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>82.62219827791667</v>
+        <v>82.72954137471065</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>110.6221982779167</v>
+        <v>110.7295413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>116.6187260556945</v>
+        <v>116.7260691524884</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.7888649445833</v>
+        <v>116.8962080413773</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>125.4971982779167</v>
+        <v>125.6045413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>130.4659482779167</v>
+        <v>130.5732913747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.6187260556945</v>
+        <v>130.7260691524884</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.7888649445833</v>
+        <v>130.8962080413773</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>151.4659482779167</v>
+        <v>151.5732913747106</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.6187260556945</v>
+        <v>158.7260691524884</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>160.4971982779167</v>
+        <v>160.6045413747106</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>165.5076149445833</v>
+        <v>165.6149580413773</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>193.7471982779167</v>
+        <v>193.8545413747106</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>195.4971982779167</v>
+        <v>195.6045413747106</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>201.6638649445833</v>
+        <v>201.7712080413773</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -23186,7 +23186,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>214.6603927223611</v>
+        <v>214.7677358191551</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>228.6603927223611</v>
+        <v>228.7677358191551</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>229.6638649445833</v>
+        <v>229.7712080413773</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>326.6603927223611</v>
+        <v>326.7677358191551</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>327.6638649445833</v>
+        <v>327.7712080413773</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>333.6603927223611</v>
+        <v>333.7677358191551</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>334.58053161125</v>
+        <v>334.687874708044</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>334.6638649445833</v>
+        <v>334.7712080413773</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.83053161125</v>
+        <v>340.937874708044</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>347.83053161125</v>
+        <v>347.937874708044</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>355.6638649445833</v>
+        <v>355.7712080413773</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>361.83053161125</v>
+        <v>361.937874708044</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>368.6603927223611</v>
+        <v>368.7677358191551</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>389.6187260556944</v>
+        <v>389.7260691524884</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.61872605569445</v>
+        <v>18.72606915248842</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26344,7 +26344,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.61872605569445</v>
+        <v>32.72606915248843</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.45553161125</v>
+        <v>33.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -26653,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.78886494458333</v>
+        <v>46.89620804137731</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -26756,7 +26756,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.46594827791666</v>
+        <v>60.57329137471065</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -26859,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.78886494458333</v>
+        <v>60.89620804137731</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27065,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.62219827791667</v>
+        <v>68.72954137471065</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -27271,7 +27271,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27374,7 +27374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>131.45553161125</v>
+        <v>131.562874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -27683,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.7888649445833</v>
+        <v>151.8962080413773</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -27786,7 +27786,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.6638649445833</v>
+        <v>159.7712080413773</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.6603927223611</v>
+        <v>165.7677358191551</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.4971982779167</v>
+        <v>166.6045413747106</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.7471982779167</v>
+        <v>179.8545413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.4971982779167</v>
+        <v>181.6045413747106</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -28301,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.5076149445833</v>
+        <v>186.6149580413773</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>187.4971982779167</v>
+        <v>187.6045413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.5076149445833</v>
+        <v>200.6149580413773</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.83053161125</v>
+        <v>221.937874708044</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.6603927223611</v>
+        <v>235.7677358191551</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.5076149445833</v>
+        <v>347.6149580413773</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.6603927223611</v>
+        <v>354.7677358191551</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.4659482779167</v>
+        <v>382.5732913747107</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>384.45553161125</v>
+        <v>384.562874708044</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -30464,7 +30464,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>396.4659482779167</v>
+        <v>396.5732913747107</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>396.6187260556944</v>
+        <v>396.7260691524884</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>398.45553161125</v>
+        <v>398.562874708044</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.788864944583334</v>
+        <v>4.896208041377315</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.622198277916667</v>
+        <v>5.729541374710648</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -31253,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.46594827791667</v>
+        <v>18.57329137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -31356,7 +31356,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>20.45553161125</v>
+        <v>20.56287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -31459,7 +31459,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.62219827791667</v>
+        <v>26.72954137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -31562,7 +31562,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>41.45553161125</v>
+        <v>41.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.45553161125</v>
+        <v>47.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.61872605569444</v>
+        <v>53.72606915248843</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -31871,7 +31871,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.45553161125</v>
+        <v>61.56287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.61872605569444</v>
+        <v>67.72606915248842</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.7888649445833</v>
+        <v>109.8962080413773</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -32283,7 +32283,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>118.45553161125</v>
+        <v>118.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -32592,7 +32592,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.6221982779167</v>
+        <v>152.7295413747106</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>200.83053161125</v>
+        <v>200.937874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>223.4971982779167</v>
+        <v>223.6045413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>229.4971982779167</v>
+        <v>229.6045413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -33004,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.5076149445833</v>
+        <v>319.6149580413773</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -33210,7 +33210,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>319.6603927223611</v>
+        <v>319.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>333.5076149445833</v>
+        <v>333.6149580413773</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -33416,7 +33416,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.83053161125</v>
+        <v>333.937874708044</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.4971982779167</v>
+        <v>338.6045413747107</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>349.4971982779167</v>
+        <v>349.6045413747107</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>356.4971982779167</v>
+        <v>356.6045413747107</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>361.6603927223611</v>
+        <v>361.7677358191551</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>382.7888649445833</v>
+        <v>382.8962080413773</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>396.7888649445833</v>
+        <v>396.8962080413773</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>404.45553161125</v>
+        <v>404.562874708044</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -34720,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.62219827791667</v>
+        <v>19.72954137471065</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34926,7 +34926,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.78886494458333</v>
+        <v>32.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -35132,7 +35132,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -35235,7 +35235,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.78886494458332</v>
+        <v>67.89620804137732</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -35441,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -35956,7 +35956,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>124.45553161125</v>
+        <v>124.562874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>127.58053161125</v>
+        <v>127.687874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>146.45553161125</v>
+        <v>146.562874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -36368,7 +36368,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -36471,7 +36471,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -36574,7 +36574,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.83053161125</v>
+        <v>165.937874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.6638649445833</v>
+        <v>180.7712080413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.6603927223611</v>
+        <v>186.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.6603927223611</v>
+        <v>193.7677358191551</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>193.83053161125</v>
+        <v>193.937874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>214.83053161125</v>
+        <v>214.937874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -37398,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>221.6603927223611</v>
+        <v>221.7677358191551</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>319.83053161125</v>
+        <v>319.937874708044</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>320.6638649445833</v>
+        <v>320.7712080413773</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>347.6638649445833</v>
+        <v>347.7712080413773</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>348.6638649445833</v>
+        <v>348.7712080413773</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>362.6638649445833</v>
+        <v>362.7712080413773</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>383.6221982779167</v>
+        <v>383.7295413747107</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>390.6221982779167</v>
+        <v>390.7295413747107</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -40659,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -40762,7 +40762,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.62219827791667</v>
+        <v>40.72954137471065</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -40865,7 +40865,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -41277,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -41380,7 +41380,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.4659482779167</v>
+        <v>116.5732913747106</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -41483,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -41689,7 +41689,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41895,7 +41895,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>194.6638649445833</v>
+        <v>194.7712080413773</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -42307,7 +42307,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>216.4971982779167</v>
+        <v>216.6045413747106</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -42410,7 +42410,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>230.4971982779167</v>
+        <v>230.6045413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -42925,7 +42925,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>361.5076149445833</v>
+        <v>361.6149580413773</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>369.6638649445833</v>
+        <v>369.7712080413773</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -43749,7 +43749,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -43852,7 +43852,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>403.7888649445833</v>
+        <v>403.8962080413773</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.46594827791667</v>
+        <v>32.57329137471065</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -44435,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>34.45553161125</v>
+        <v>34.56287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.45553161125</v>
+        <v>40.56287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.61872605569445</v>
+        <v>46.72606915248843</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.46594827791666</v>
+        <v>53.57329137471065</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44950,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>62.45553161125</v>
+        <v>62.56287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.61872605569444</v>
+        <v>81.72606915248842</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>111.45553161125</v>
+        <v>111.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.6221982779167</v>
+        <v>117.7295413747106</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>123.7888649445833</v>
+        <v>123.8962080413773</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>131.6221982779167</v>
+        <v>131.7295413747106</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>144.6187260556945</v>
+        <v>144.7260691524884</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>145.45553161125</v>
+        <v>145.562874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.6221982779167</v>
+        <v>145.7295413747106</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -45980,7 +45980,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.6187260556945</v>
+        <v>151.7260691524884</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>167.4971982779167</v>
+        <v>167.6045413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.5076149445833</v>
+        <v>179.6149580413773</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.4971982779167</v>
+        <v>180.6045413747106</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.83053161125</v>
+        <v>186.937874708044</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.6638649445833</v>
+        <v>187.7712080413773</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>188.4971982779167</v>
+        <v>188.6045413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.5076149445833</v>
+        <v>214.6149580413773</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.4971982779167</v>
+        <v>215.6045413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.5076149445833</v>
+        <v>221.6149580413773</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.5076149445833</v>
+        <v>235.6149580413773</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>321.4971982779167</v>
+        <v>321.6045413747107</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>326.83053161125</v>
+        <v>326.937874708044</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.4971982779167</v>
+        <v>340.6045413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>362.4971982779167</v>
+        <v>362.6045413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>369.4971982779167</v>
+        <v>369.6045413747107</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.7888649445833</v>
+        <v>389.8962080413773</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.788864944583334</v>
+        <v>4.896208041377315</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.622198277916667</v>
+        <v>5.729541374710648</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.46594827791667</v>
+        <v>18.57329137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>20.45553161125</v>
+        <v>20.56287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -49241,7 +49241,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.62219827791667</v>
+        <v>26.72954137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>41.45553161125</v>
+        <v>41.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.45553161125</v>
+        <v>47.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>53.61872605569444</v>
+        <v>53.72606915248843</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.45553161125</v>
+        <v>61.56287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.61872605569444</v>
+        <v>67.72606915248842</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49859,7 +49859,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -49962,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.7888649445833</v>
+        <v>109.8962080413773</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>118.45553161125</v>
+        <v>118.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.6221982779167</v>
+        <v>152.7295413747106</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>200.83053161125</v>
+        <v>200.937874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>223.4971982779167</v>
+        <v>223.6045413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -50683,7 +50683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>229.4971982779167</v>
+        <v>229.6045413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>319.5076149445833</v>
+        <v>319.6149580413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>319.6603927223611</v>
+        <v>319.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>333.5076149445833</v>
+        <v>333.6149580413773</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -51301,7 +51301,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.83053161125</v>
+        <v>333.937874708044</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>338.4971982779167</v>
+        <v>338.6045413747107</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>349.4971982779167</v>
+        <v>349.6045413747107</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>356.4971982779167</v>
+        <v>356.6045413747107</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>361.6603927223611</v>
+        <v>361.7677358191551</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>382.7888649445833</v>
+        <v>382.8962080413773</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>396.7888649445833</v>
+        <v>396.8962080413773</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -52228,7 +52228,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>404.45553161125</v>
+        <v>404.562874708044</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.78886494458333</v>
+        <v>18.89620804137731</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -52605,7 +52605,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.45553161125</v>
+        <v>19.56287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.62219827791667</v>
+        <v>25.72954137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.78886494458333</v>
+        <v>25.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -52914,7 +52914,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.46594827791667</v>
+        <v>39.57329137471065</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.61872605569445</v>
+        <v>39.72606915248843</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.45553161125</v>
+        <v>54.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.62219827791666</v>
+        <v>54.72954137471065</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.61872605569444</v>
+        <v>60.72606915248843</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>83.45553161125</v>
+        <v>83.56287470804398</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.6187260556945</v>
+        <v>109.7260691524884</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.45553161125</v>
+        <v>110.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>119.4763649445833</v>
+        <v>119.5837080413773</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.4659482779167</v>
+        <v>123.5732913747106</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.45553161125</v>
+        <v>152.562874708044</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>153.45553161125</v>
+        <v>153.562874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.6638649445833</v>
+        <v>166.7712080413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.6603927223611</v>
+        <v>179.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.7471982779167</v>
+        <v>179.8545413747106</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>191.4971982779167</v>
+        <v>191.6045413747106</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.7471982779167</v>
+        <v>193.8545413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.6603927223611</v>
+        <v>200.7677358191551</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>202.4971982779167</v>
+        <v>202.6045413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.6638649445833</v>
+        <v>215.7712080413773</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.5076149445833</v>
+        <v>228.6149580413773</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -55695,7 +55695,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>328.4971982779167</v>
+        <v>328.6045413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.83053161125</v>
+        <v>354.937874708044</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>363.4971982779167</v>
+        <v>363.6045413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>370.4971982779167</v>
+        <v>370.6045413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -56622,7 +56622,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.6187260556944</v>
+        <v>382.7260691524884</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>389.4659482779167</v>
+        <v>389.5732913747107</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>397.6221982779167</v>
+        <v>397.7295413747107</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.618726055694445</v>
+        <v>4.726069152488425</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -57308,7 +57308,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.455531611250001</v>
+        <v>5.562874708043982</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>27.45553161125</v>
+        <v>27.56287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57720,7 +57720,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.62219827791667</v>
+        <v>33.72954137471065</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57926,7 +57926,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58132,7 +58132,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>48.45553161125</v>
+        <v>48.56287470804398</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>53.78886494458333</v>
+        <v>53.89620804137731</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>61.62219827791666</v>
+        <v>61.72954137471065</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>69.45553161125</v>
+        <v>69.56287470804398</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>82.45553161125</v>
+        <v>82.56287470804398</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>82.62219827791667</v>
+        <v>82.72954137471065</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>110.6221982779167</v>
+        <v>110.7295413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>116.6187260556945</v>
+        <v>116.7260691524884</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.7888649445833</v>
+        <v>116.8962080413773</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>125.4971982779167</v>
+        <v>125.6045413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>130.4659482779167</v>
+        <v>130.5732913747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.6187260556945</v>
+        <v>130.7260691524884</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.7888649445833</v>
+        <v>130.8962080413773</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>151.4659482779167</v>
+        <v>151.5732913747106</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.6187260556945</v>
+        <v>158.7260691524884</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>160.4971982779167</v>
+        <v>160.6045413747106</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>165.5076149445833</v>
+        <v>165.6149580413773</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>193.7471982779167</v>
+        <v>193.8545413747106</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>195.4971982779167</v>
+        <v>195.6045413747106</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>201.6638649445833</v>
+        <v>201.7712080413773</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>214.6603927223611</v>
+        <v>214.7677358191551</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>228.6603927223611</v>
+        <v>228.7677358191551</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>229.6638649445833</v>
+        <v>229.7712080413773</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -61840,7 +61840,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>326.6603927223611</v>
+        <v>326.7677358191551</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>327.6638649445833</v>
+        <v>327.7712080413773</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>333.6603927223611</v>
+        <v>333.7677358191551</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>334.58053161125</v>
+        <v>334.687874708044</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>334.6638649445833</v>
+        <v>334.7712080413773</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.83053161125</v>
+        <v>340.937874708044</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62973,7 +62973,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>347.83053161125</v>
+        <v>347.937874708044</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>355.6638649445833</v>
+        <v>355.7712080413773</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>361.83053161125</v>
+        <v>361.937874708044</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>368.6603927223611</v>
+        <v>368.7677358191551</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>389.6187260556944</v>
+        <v>389.7260691524884</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63968,7 +63968,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.62219827791667</v>
+        <v>19.72954137471065</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64071,7 +64071,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.70553161125</v>
+        <v>25.81287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -64174,7 +64174,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -64277,7 +64277,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.78886494458333</v>
+        <v>32.89620804137731</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64380,7 +64380,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.70553161125</v>
+        <v>39.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -64483,7 +64483,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -64586,7 +64586,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.78886494458332</v>
+        <v>67.89620804137732</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -64792,7 +64792,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.70553161125</v>
+        <v>81.81287470804398</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -64895,7 +64895,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -64998,7 +64998,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65101,7 +65101,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.70553161125</v>
+        <v>109.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65204,7 +65204,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>124.45553161125</v>
+        <v>124.562874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -65307,7 +65307,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>127.58053161125</v>
+        <v>127.687874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -65410,7 +65410,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>146.45553161125</v>
+        <v>146.562874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65513,7 +65513,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -65616,7 +65616,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -65719,7 +65719,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -65822,7 +65822,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>165.7471982779167</v>
+        <v>165.8545413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -65925,7 +65925,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.83053161125</v>
+        <v>165.937874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -66028,7 +66028,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>180.6638649445833</v>
+        <v>180.7712080413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.6603927223611</v>
+        <v>186.7677358191551</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.6603927223611</v>
+        <v>193.7677358191551</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>193.83053161125</v>
+        <v>193.937874708044</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>214.83053161125</v>
+        <v>214.937874708044</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -66646,7 +66646,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>221.6603927223611</v>
+        <v>221.7677358191551</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -66749,7 +66749,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.7471982779167</v>
+        <v>228.8545413747106</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -67058,7 +67058,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>319.83053161125</v>
+        <v>319.937874708044</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>320.6638649445833</v>
+        <v>320.7712080413773</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.7471982779167</v>
+        <v>333.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>347.6638649445833</v>
+        <v>347.7712080413773</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>348.6638649445833</v>
+        <v>348.7712080413773</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>362.6638649445833</v>
+        <v>362.7712080413773</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>383.6221982779167</v>
+        <v>383.7295413747107</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -69118,7 +69118,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>390.6221982779167</v>
+        <v>390.7295413747107</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>403.70553161125</v>
+        <v>403.812874708044</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -69907,7 +69907,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.46594827791667</v>
+        <v>25.57329137471065</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -70010,7 +70010,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -70113,7 +70113,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.46594827791667</v>
+        <v>46.57329137471065</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -70216,7 +70216,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.62219827791667</v>
+        <v>47.72954137471065</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -70319,7 +70319,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>55.45553161125</v>
+        <v>55.56287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -70422,7 +70422,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.78886494458332</v>
+        <v>81.89620804137732</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -70525,7 +70525,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -70628,7 +70628,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -70731,7 +70731,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>117.45553161125</v>
+        <v>117.562874708044</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -70834,7 +70834,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>123.6187260556945</v>
+        <v>123.7260691524884</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -70937,7 +70937,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.42428161125</v>
+        <v>144.531624708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -71040,7 +71040,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.4971982779167</v>
+        <v>159.6045413747106</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>179.83053161125</v>
+        <v>179.937874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>193.5076149445833</v>
+        <v>193.6149580413773</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>201.4971982779167</v>
+        <v>201.6045413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>228.83053161125</v>
+        <v>228.937874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>236.5388649445833</v>
+        <v>236.6462080413773</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>320.4971982779167</v>
+        <v>320.6045413747107</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.5076149445833</v>
+        <v>326.6149580413773</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>327.4971982779167</v>
+        <v>327.6045413747107</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.4971982779167</v>
+        <v>334.6045413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>337.4971982779167</v>
+        <v>337.6045413747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>340.5076149445833</v>
+        <v>340.6149580413773</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>340.6603927223611</v>
+        <v>340.7677358191551</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>341.70553161125</v>
+        <v>341.812874708044</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>354.5076149445833</v>
+        <v>354.6149580413773</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>368.83053161125</v>
+        <v>368.937874708044</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>383.45553161125</v>
+        <v>383.562874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>397.45553161125</v>
+        <v>397.562874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -73374,7 +73374,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.705531611250001</v>
+        <v>4.812874708043982</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -73477,7 +73477,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.61872605569445</v>
+        <v>18.72606915248842</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -73580,7 +73580,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -73683,7 +73683,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -73786,7 +73786,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>18.70553161125</v>
+        <v>18.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -73889,7 +73889,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.61872605569445</v>
+        <v>32.72606915248843</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -73992,7 +73992,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.45553161125</v>
+        <v>33.56287470804398</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -74095,7 +74095,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.78886494458333</v>
+        <v>46.89620804137731</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -74198,7 +74198,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.46594827791666</v>
+        <v>60.57329137471065</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -74301,7 +74301,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.78886494458333</v>
+        <v>60.89620804137731</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -74404,7 +74404,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -74507,7 +74507,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.62219827791667</v>
+        <v>68.72954137471065</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>116.70553161125</v>
+        <v>116.812874708044</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>131.45553161125</v>
+        <v>131.562874708044</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.7888649445833</v>
+        <v>151.8962080413773</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.6638649445833</v>
+        <v>159.7712080413773</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>165.6603927223611</v>
+        <v>165.7677358191551</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>166.4971982779167</v>
+        <v>166.6045413747106</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.7471982779167</v>
+        <v>179.8545413747106</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -75640,7 +75640,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.4971982779167</v>
+        <v>181.6045413747106</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.5076149445833</v>
+        <v>186.6149580413773</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>187.4971982779167</v>
+        <v>187.6045413747106</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.5076149445833</v>
+        <v>200.6149580413773</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.7471982779167</v>
+        <v>200.8545413747106</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.7471982779167</v>
+        <v>214.8545413747106</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.7471982779167</v>
+        <v>221.8545413747106</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.83053161125</v>
+        <v>221.937874708044</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>235.6603927223611</v>
+        <v>235.7677358191551</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>319.7471982779167</v>
+        <v>319.8545413747107</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.7471982779167</v>
+        <v>340.8545413747107</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.5076149445833</v>
+        <v>347.6149580413773</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.6603927223611</v>
+        <v>354.7677358191551</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>368.7471982779167</v>
+        <v>368.8545413747107</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>382.4659482779167</v>
+        <v>382.5732913747107</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>382.70553161125</v>
+        <v>382.812874708044</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>384.45553161125</v>
+        <v>384.562874708044</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>396.4659482779167</v>
+        <v>396.5732913747107</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>396.6187260556944</v>
+        <v>396.7260691524884</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>398.45553161125</v>
+        <v>398.562874708044</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -78489,7 +78489,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.70553161125</v>
+        <v>32.81287470804398</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -78592,7 +78592,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.62219827791667</v>
+        <v>40.72954137471065</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -78695,7 +78695,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.70553161125</v>
+        <v>46.81287470804398</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -78798,7 +78798,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.70553161125</v>
+        <v>53.81287470804398</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -78901,7 +78901,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.70553161125</v>
+        <v>60.81287470804398</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79004,7 +79004,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>67.70553161125</v>
+        <v>67.81287470804398</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>106.45553161125</v>
+        <v>106.562874708044</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79210,7 +79210,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.4659482779167</v>
+        <v>116.5732913747106</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.70553161125</v>
+        <v>123.812874708044</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -79416,7 +79416,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.70553161125</v>
+        <v>130.812874708044</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.70553161125</v>
+        <v>144.812874708044</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.70553161125</v>
+        <v>151.812874708044</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.70553161125</v>
+        <v>158.812874708044</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>186.7471982779167</v>
+        <v>186.8545413747106</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>194.6638649445833</v>
+        <v>194.7712080413773</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>216.4971982779167</v>
+        <v>216.6045413747106</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>230.4971982779167</v>
+        <v>230.6045413747106</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.7471982779167</v>
+        <v>235.8545413747106</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>306.58053161125</v>
+        <v>306.687874708044</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>313.4971982779167</v>
+        <v>313.6045413747107</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>326.7471982779167</v>
+        <v>326.8545413747107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.7471982779167</v>
+        <v>347.8545413747107</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>354.7471982779167</v>
+        <v>354.8545413747107</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>361.5076149445833</v>
+        <v>361.6149580413773</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>361.7471982779167</v>
+        <v>361.8545413747107</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>369.6638649445833</v>
+        <v>369.7712080413773</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>389.70553161125</v>
+        <v>389.812874708044</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>396.70553161125</v>
+        <v>396.812874708044</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -81785,7 +81785,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>403.7888649445833</v>
+        <v>403.8962080413773</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
